--- a/OITTConfig.xlsx
+++ b/OITTConfig.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="78">
   <si>
     <t xml:space="preserve">نقاط ریپورت خروجی</t>
   </si>
@@ -49,6 +49,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">مربوط به پرواز های نظامی و لوکال</t>
     </r>
@@ -90,7 +91,7 @@
     <t xml:space="preserve">29R</t>
   </si>
   <si>
-    <t xml:space="preserve">RUDAD1A</t>
+    <t xml:space="preserve">MEH 2A</t>
   </si>
   <si>
     <t xml:space="preserve">RAKED1P</t>
@@ -117,7 +118,7 @@
     <t xml:space="preserve">29L</t>
   </si>
   <si>
-    <t xml:space="preserve">RAKED1A</t>
+    <t xml:space="preserve">MEH 1B</t>
   </si>
   <si>
     <t xml:space="preserve">RAKED2N</t>
@@ -141,7 +142,7 @@
     <t xml:space="preserve">11R</t>
   </si>
   <si>
-    <t xml:space="preserve">RUDAD1B</t>
+    <t xml:space="preserve">NAGMO 1A</t>
   </si>
   <si>
     <t xml:space="preserve">SETNA1P</t>
@@ -159,7 +160,7 @@
     <t xml:space="preserve">11L</t>
   </si>
   <si>
-    <t xml:space="preserve">PAPOK1A</t>
+    <t xml:space="preserve">NAGMO 1B</t>
   </si>
   <si>
     <t xml:space="preserve">SETNA1N</t>
@@ -174,7 +175,7 @@
     <t xml:space="preserve">TWYA,STAND102W</t>
   </si>
   <si>
-    <t xml:space="preserve">DASDA1A</t>
+    <t xml:space="preserve">DEH 3A</t>
   </si>
   <si>
     <t xml:space="preserve">RUDAD1P</t>
@@ -189,7 +190,7 @@
     <t xml:space="preserve">TWYA,STAND103W</t>
   </si>
   <si>
-    <t xml:space="preserve">BOPRESIA</t>
+    <t xml:space="preserve">DEH 3B</t>
   </si>
   <si>
     <t xml:space="preserve">RUDAD1N</t>
@@ -201,7 +202,7 @@
     <t xml:space="preserve">ROUTE L</t>
   </si>
   <si>
-    <t xml:space="preserve">RABDI1A</t>
+    <t xml:space="preserve">DEH 2C</t>
   </si>
   <si>
     <t xml:space="preserve">PAPOK1P</t>
@@ -213,7 +214,7 @@
     <t xml:space="preserve">C64</t>
   </si>
   <si>
-    <t xml:space="preserve">RAKED1B</t>
+    <t xml:space="preserve">SAV 2A</t>
   </si>
   <si>
     <t xml:space="preserve">PAPOK1N</t>
@@ -225,7 +226,7 @@
     <t xml:space="preserve">RADAR CHECK</t>
   </si>
   <si>
-    <t xml:space="preserve">UROMIYEH1A</t>
+    <t xml:space="preserve">SAV 2B</t>
   </si>
   <si>
     <t xml:space="preserve">DASDA1P</t>
@@ -234,7 +235,7 @@
     <t xml:space="preserve">J</t>
   </si>
   <si>
-    <t xml:space="preserve">UROMIYEH1B</t>
+    <t xml:space="preserve">SAV 3C</t>
   </si>
   <si>
     <t xml:space="preserve">DASDA1N</t>
@@ -243,7 +244,7 @@
     <t xml:space="preserve">K</t>
   </si>
   <si>
-    <t xml:space="preserve">VISUAL</t>
+    <t xml:space="preserve">PAVET 2A</t>
   </si>
   <si>
     <t xml:space="preserve">RABDI1P</t>
@@ -252,12 +253,18 @@
     <t xml:space="preserve">L</t>
   </si>
   <si>
+    <t xml:space="preserve">PAVET 2B</t>
+  </si>
+  <si>
     <t xml:space="preserve">RABDI1N</t>
   </si>
   <si>
     <t xml:space="preserve">M</t>
   </si>
   <si>
+    <t xml:space="preserve">PAVET 3C</t>
+  </si>
+  <si>
     <t xml:space="preserve">BORES1P</t>
   </si>
   <si>
@@ -265,6 +272,9 @@
   </si>
   <si>
     <t xml:space="preserve">BORES1N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VISUAL DEP</t>
   </si>
 </sst>
 </file>
@@ -311,6 +321,7 @@
       <color rgb="FF000000"/>
       <name val="Noto Sans Devanagari"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -537,21 +548,21 @@
   </sheetPr>
   <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="true" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3:C12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="true" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J13" activeCellId="0" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="29.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="0" width="18.42"/>
@@ -937,12 +948,14 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
+      <c r="I14" s="7" t="s">
+        <v>70</v>
+      </c>
       <c r="J14" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
@@ -959,12 +972,14 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
+      <c r="I15" s="7" t="s">
+        <v>73</v>
+      </c>
       <c r="J15" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
@@ -983,7 +998,7 @@
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
@@ -1116,7 +1131,7 @@
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="7" t="n">
         <v>22</v>
       </c>
@@ -1134,7 +1149,7 @@
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="n">
         <v>23</v>
       </c>
@@ -1145,14 +1160,14 @@
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
+      <c r="I25" s="7"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="7" t="n">
         <v>24</v>
       </c>
@@ -1163,14 +1178,14 @@
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
+      <c r="I26" s="7"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="n">
         <v>25</v>
       </c>
@@ -1181,14 +1196,14 @@
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
+      <c r="I27" s="7"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
       <c r="M27" s="9"/>
       <c r="N27" s="9"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="7" t="n">
         <v>26</v>
       </c>
@@ -1199,14 +1214,14 @@
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
+      <c r="I28" s="7"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="n">
         <v>27</v>
       </c>
@@ -1217,14 +1232,14 @@
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
+      <c r="I29" s="7"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
       <c r="M29" s="9"/>
       <c r="N29" s="9"/>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="n">
         <v>28</v>
       </c>
@@ -1235,14 +1250,14 @@
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
+      <c r="I30" s="7"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
       <c r="M30" s="9"/>
       <c r="N30" s="9"/>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="n">
         <v>29</v>
       </c>
@@ -1253,14 +1268,14 @@
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
+      <c r="I31" s="7"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
       <c r="M31" s="9"/>
       <c r="N31" s="9"/>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="7" t="n">
         <v>30</v>
       </c>
@@ -1271,14 +1286,14 @@
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
+      <c r="I32" s="7"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="7" t="n">
         <v>31</v>
       </c>
@@ -1289,7 +1304,9 @@
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
+      <c r="I33" s="7" t="s">
+        <v>77</v>
+      </c>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
